--- a/tl/S10030.MES.BIN.xlsx
+++ b/tl/S10030.MES.BIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87A494B-DBB0-47FF-8DB8-D09055887E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C8E4DF-AD7B-46CE-8778-8DC5F4B9603E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="6240" windowWidth="54585" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="16215" windowWidth="55245" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S10030.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="483">
   <si>
     <t>Status</t>
   </si>
@@ -677,10 +677,13 @@
     <t>193</t>
   </si>
   <si>
+    <t>While letting out a languid breath, Yuki embraces me.</t>
+  </si>
+  <si>
     <t>While letting out a languid breath, Yuki hugs me back.</t>
   </si>
   <si>
-    <t>"back" is correct</t>
+    <t>"back" is correct per TL, but it makes no sense in context, so dropping</t>
   </si>
   <si>
     <t>195</t>
@@ -791,7 +794,7 @@
     <t>231</t>
   </si>
   <si>
-    <t>Buying my face in the thick fabric of her winter clothes, I smell Yuki's nostalgic scent.</t>
+    <t>Burying my face in the thick fabric of her winter clothes, I smell Yuki's nostalgic scent.</t>
   </si>
   <si>
     <t>233</t>
@@ -1467,7 +1470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1884,7 +1887,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -1892,7 +1895,7 @@
     <col min="5" max="10" width="115" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1924,7 +1927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -2116,7 +2119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -2244,7 +2247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -2276,7 +2279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -2436,7 +2439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -2596,7 +2599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -2660,7 +2663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -2692,7 +2695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -2724,7 +2727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
@@ -2756,7 +2759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -2852,7 +2855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
@@ -2884,7 +2887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
@@ -2916,7 +2919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
@@ -2948,7 +2951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -3108,7 +3111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>9</v>
       </c>
@@ -3140,7 +3143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>9</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -3236,7 +3239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
@@ -3268,7 +3271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>9</v>
       </c>
@@ -3332,7 +3335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>9</v>
       </c>
@@ -3396,7 +3399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>9</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>9</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
@@ -3556,7 +3559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>9</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -3684,7 +3687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>9</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
@@ -3748,7 +3751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>9</v>
       </c>
@@ -3780,7 +3783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
@@ -3812,7 +3815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>9</v>
       </c>
@@ -3844,7 +3847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>9</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>9</v>
       </c>
@@ -3940,7 +3943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3972,7 +3975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -4004,7 +4007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>9</v>
       </c>
@@ -4036,7 +4039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>9</v>
       </c>
@@ -4068,7 +4071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>9</v>
       </c>
@@ -4100,7 +4103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>9</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>9</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>9</v>
       </c>
@@ -4196,7 +4199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>9</v>
       </c>
@@ -4228,7 +4231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>9</v>
       </c>
@@ -4260,7 +4263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>9</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>9</v>
       </c>
@@ -4356,7 +4359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
@@ -4388,7 +4391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>9</v>
       </c>
@@ -4420,7 +4423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>9</v>
       </c>
@@ -4452,7 +4455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>9</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>9</v>
       </c>
@@ -4516,7 +4519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>9</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>9</v>
       </c>
@@ -4580,7 +4583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>9</v>
       </c>
@@ -4612,7 +4615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
@@ -4644,7 +4647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>9</v>
       </c>
@@ -4676,7 +4679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>9</v>
       </c>
@@ -4708,7 +4711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>9</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>9</v>
       </c>
@@ -4772,7 +4775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>9</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>9</v>
       </c>
@@ -4836,7 +4839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>9</v>
       </c>
@@ -4868,7 +4871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>9</v>
       </c>
@@ -4900,7 +4903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>9</v>
       </c>
@@ -4932,7 +4935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>9</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>9</v>
       </c>
@@ -4996,7 +4999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>9</v>
       </c>
@@ -5013,13 +5016,13 @@
         <v>9</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>9</v>
@@ -5028,12 +5031,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>9</v>
@@ -5048,7 +5051,7 @@
         <v>9</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>9</v>
@@ -5060,12 +5063,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -5080,7 +5083,7 @@
         <v>9</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>9</v>
@@ -5092,12 +5095,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>11</v>
@@ -5124,12 +5127,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -5144,7 +5147,7 @@
         <v>9</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>9</v>
@@ -5156,12 +5159,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>9</v>
@@ -5176,7 +5179,7 @@
         <v>9</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>9</v>
@@ -5188,12 +5191,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -5208,7 +5211,7 @@
         <v>9</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>9</v>
@@ -5220,12 +5223,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>10</v>
@@ -5252,12 +5255,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
@@ -5269,10 +5272,10 @@
         <v>9</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>9</v>
@@ -5284,12 +5287,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>9</v>
@@ -5304,7 +5307,7 @@
         <v>9</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>9</v>
@@ -5316,12 +5319,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>10</v>
@@ -5336,7 +5339,7 @@
         <v>9</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>9</v>
@@ -5348,12 +5351,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>9</v>
@@ -5368,7 +5371,7 @@
         <v>9</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>9</v>
@@ -5380,12 +5383,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -5400,7 +5403,7 @@
         <v>9</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>9</v>
@@ -5412,12 +5415,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>9</v>
@@ -5432,7 +5435,7 @@
         <v>9</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>9</v>
@@ -5444,12 +5447,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -5464,7 +5467,7 @@
         <v>9</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>9</v>
@@ -5476,12 +5479,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>9</v>
@@ -5496,7 +5499,7 @@
         <v>9</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>9</v>
@@ -5508,12 +5511,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -5528,7 +5531,7 @@
         <v>9</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>9</v>
@@ -5540,12 +5543,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>9</v>
@@ -5560,7 +5563,7 @@
         <v>9</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>9</v>
@@ -5572,12 +5575,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -5592,7 +5595,7 @@
         <v>9</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>9</v>
@@ -5604,12 +5607,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>9</v>
@@ -5624,7 +5627,7 @@
         <v>9</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>9</v>
@@ -5636,12 +5639,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -5656,7 +5659,7 @@
         <v>9</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>9</v>
@@ -5668,12 +5671,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>9</v>
@@ -5688,7 +5691,7 @@
         <v>9</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>9</v>
@@ -5700,12 +5703,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -5720,7 +5723,7 @@
         <v>9</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>9</v>
@@ -5732,12 +5735,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>9</v>
@@ -5752,7 +5755,7 @@
         <v>9</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>9</v>
@@ -5764,12 +5767,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -5784,7 +5787,7 @@
         <v>9</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>9</v>
@@ -5796,12 +5799,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>10</v>
@@ -5816,7 +5819,7 @@
         <v>9</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>9</v>
@@ -5828,12 +5831,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -5848,7 +5851,7 @@
         <v>9</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>9</v>
@@ -5860,12 +5863,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>9</v>
@@ -5880,7 +5883,7 @@
         <v>9</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>9</v>
@@ -5892,12 +5895,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>11</v>
@@ -5912,7 +5915,7 @@
         <v>9</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>9</v>
@@ -5924,12 +5927,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>9</v>
@@ -5941,10 +5944,10 @@
         <v>9</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>9</v>
@@ -5956,12 +5959,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>10</v>
@@ -5973,10 +5976,10 @@
         <v>9</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>9</v>
@@ -5988,12 +5991,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>9</v>
@@ -6008,7 +6011,7 @@
         <v>9</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>9</v>
@@ -6020,12 +6023,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -6040,7 +6043,7 @@
         <v>9</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>9</v>
@@ -6052,12 +6055,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>9</v>
@@ -6072,7 +6075,7 @@
         <v>9</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>9</v>
@@ -6084,12 +6087,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>11</v>
@@ -6104,7 +6107,7 @@
         <v>9</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>9</v>
@@ -6116,12 +6119,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>10</v>
@@ -6136,7 +6139,7 @@
         <v>9</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>9</v>
@@ -6148,12 +6151,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>11</v>
@@ -6168,7 +6171,7 @@
         <v>9</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>9</v>
@@ -6180,12 +6183,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>9</v>
@@ -6200,7 +6203,7 @@
         <v>9</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>9</v>
@@ -6212,12 +6215,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>11</v>
@@ -6232,7 +6235,7 @@
         <v>9</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>9</v>
@@ -6244,12 +6247,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>9</v>
@@ -6264,7 +6267,7 @@
         <v>9</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>9</v>
@@ -6276,12 +6279,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>10</v>
@@ -6308,12 +6311,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>9</v>
@@ -6328,7 +6331,7 @@
         <v>9</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>9</v>
@@ -6340,12 +6343,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -6360,7 +6363,7 @@
         <v>9</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>9</v>
@@ -6372,12 +6375,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>9</v>
@@ -6392,7 +6395,7 @@
         <v>9</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>9</v>
@@ -6404,12 +6407,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -6424,7 +6427,7 @@
         <v>9</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>9</v>
@@ -6436,12 +6439,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>9</v>
@@ -6456,7 +6459,7 @@
         <v>9</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>9</v>
@@ -6468,12 +6471,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -6485,10 +6488,10 @@
         <v>9</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>9</v>
@@ -6500,12 +6503,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>9</v>
@@ -6520,7 +6523,7 @@
         <v>9</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>9</v>
@@ -6532,12 +6535,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -6552,7 +6555,7 @@
         <v>9</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>9</v>
@@ -6564,12 +6567,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>9</v>
@@ -6584,7 +6587,7 @@
         <v>9</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>9</v>
@@ -6596,12 +6599,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -6616,7 +6619,7 @@
         <v>9</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>9</v>
@@ -6628,12 +6631,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>9</v>
@@ -6648,7 +6651,7 @@
         <v>9</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>9</v>
@@ -6660,12 +6663,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -6680,7 +6683,7 @@
         <v>9</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>9</v>
@@ -6692,12 +6695,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>9</v>
@@ -6712,7 +6715,7 @@
         <v>9</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>9</v>
@@ -6724,12 +6727,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>11</v>
@@ -6744,7 +6747,7 @@
         <v>9</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>9</v>
@@ -6756,12 +6759,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>9</v>
@@ -6773,10 +6776,10 @@
         <v>9</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>9</v>
@@ -6788,12 +6791,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>11</v>
@@ -6820,12 +6823,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>9</v>
@@ -6840,7 +6843,7 @@
         <v>9</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>9</v>
@@ -6852,12 +6855,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -6872,7 +6875,7 @@
         <v>9</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>9</v>
@@ -6884,12 +6887,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>10</v>
@@ -6904,7 +6907,7 @@
         <v>9</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>9</v>
@@ -6916,12 +6919,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -6933,10 +6936,10 @@
         <v>9</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>9</v>
@@ -6948,12 +6951,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>9</v>
@@ -6968,7 +6971,7 @@
         <v>9</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>9</v>
@@ -6980,12 +6983,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -7000,7 +7003,7 @@
         <v>9</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>9</v>
@@ -7012,12 +7015,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>11</v>
@@ -7032,7 +7035,7 @@
         <v>9</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>9</v>
@@ -7044,12 +7047,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -7064,7 +7067,7 @@
         <v>9</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>9</v>
@@ -7076,12 +7079,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>9</v>
@@ -7096,7 +7099,7 @@
         <v>9</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>9</v>
@@ -7108,12 +7111,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -7128,7 +7131,7 @@
         <v>9</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H164" s="3" t="s">
         <v>9</v>
@@ -7140,12 +7143,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>9</v>
@@ -7157,10 +7160,10 @@
         <v>9</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H165" s="5" t="s">
         <v>9</v>
@@ -7172,12 +7175,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -7192,7 +7195,7 @@
         <v>9</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H166" s="3" t="s">
         <v>9</v>
@@ -7204,12 +7207,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>11</v>
@@ -7236,12 +7239,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -7256,7 +7259,7 @@
         <v>9</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H168" s="3" t="s">
         <v>9</v>
@@ -7268,12 +7271,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>9</v>
@@ -7288,7 +7291,7 @@
         <v>9</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H169" s="5" t="s">
         <v>9</v>
@@ -7300,12 +7303,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -7320,7 +7323,7 @@
         <v>9</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H170" s="3" t="s">
         <v>9</v>
@@ -7332,12 +7335,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>9</v>
@@ -7352,7 +7355,7 @@
         <v>9</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H171" s="5" t="s">
         <v>9</v>
@@ -7364,12 +7367,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -7384,7 +7387,7 @@
         <v>9</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>9</v>
@@ -7396,12 +7399,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>9</v>
@@ -7416,7 +7419,7 @@
         <v>9</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H173" s="5" t="s">
         <v>9</v>
@@ -7428,12 +7431,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -7448,7 +7451,7 @@
         <v>9</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H174" s="3" t="s">
         <v>9</v>
@@ -7460,12 +7463,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>9</v>
@@ -7480,7 +7483,7 @@
         <v>9</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H175" s="5" t="s">
         <v>9</v>
@@ -7492,12 +7495,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -7512,7 +7515,7 @@
         <v>9</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H176" s="3" t="s">
         <v>9</v>
@@ -7524,12 +7527,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>9</v>
@@ -7544,7 +7547,7 @@
         <v>9</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H177" s="5" t="s">
         <v>9</v>
@@ -7556,12 +7559,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -7576,7 +7579,7 @@
         <v>9</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>9</v>
@@ -7588,12 +7591,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>9</v>
@@ -7608,7 +7611,7 @@
         <v>9</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H179" s="5" t="s">
         <v>9</v>
@@ -7620,12 +7623,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -7640,7 +7643,7 @@
         <v>9</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H180" s="3" t="s">
         <v>9</v>
@@ -7652,12 +7655,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>10</v>
@@ -7684,12 +7687,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -7704,7 +7707,7 @@
         <v>9</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>9</v>
@@ -7716,12 +7719,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>11</v>
@@ -7748,12 +7751,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>10</v>
@@ -7765,7 +7768,7 @@
         <v>9</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>34</v>
@@ -7780,12 +7783,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>9</v>
@@ -7800,7 +7803,7 @@
         <v>9</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H185" s="5" t="s">
         <v>9</v>
@@ -7812,12 +7815,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>11</v>
@@ -7832,7 +7835,7 @@
         <v>9</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H186" s="3" t="s">
         <v>9</v>
@@ -7844,12 +7847,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>9</v>
@@ -7864,7 +7867,7 @@
         <v>9</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H187" s="5" t="s">
         <v>9</v>
@@ -7876,12 +7879,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>10</v>
@@ -7896,7 +7899,7 @@
         <v>9</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H188" s="3" t="s">
         <v>9</v>
@@ -7908,12 +7911,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>9</v>
@@ -7928,7 +7931,7 @@
         <v>9</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H189" s="5" t="s">
         <v>9</v>
@@ -7940,12 +7943,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>10</v>
@@ -7960,7 +7963,7 @@
         <v>9</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>9</v>
@@ -7972,12 +7975,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>9</v>
@@ -7992,7 +7995,7 @@
         <v>9</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H191" s="5" t="s">
         <v>9</v>
@@ -8004,12 +8007,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -8024,7 +8027,7 @@
         <v>9</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>9</v>
@@ -8036,12 +8039,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>10</v>
@@ -8056,7 +8059,7 @@
         <v>9</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H193" s="5" t="s">
         <v>9</v>
@@ -8068,12 +8071,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -8088,7 +8091,7 @@
         <v>9</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H194" s="3" t="s">
         <v>9</v>
@@ -8100,12 +8103,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>9</v>
@@ -8117,10 +8120,10 @@
         <v>9</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H195" s="5" t="s">
         <v>9</v>
@@ -8132,12 +8135,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -8152,7 +8155,7 @@
         <v>9</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H196" s="3" t="s">
         <v>9</v>
@@ -8164,12 +8167,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>9</v>
@@ -8184,7 +8187,7 @@
         <v>9</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H197" s="5" t="s">
         <v>9</v>
@@ -8196,12 +8199,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -8216,7 +8219,7 @@
         <v>9</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H198" s="3" t="s">
         <v>9</v>
@@ -8228,12 +8231,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>9</v>
@@ -8248,7 +8251,7 @@
         <v>9</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H199" s="5" t="s">
         <v>9</v>
@@ -8260,12 +8263,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -8280,7 +8283,7 @@
         <v>9</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H200" s="3" t="s">
         <v>9</v>
@@ -8292,12 +8295,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>9</v>
@@ -8312,7 +8315,7 @@
         <v>9</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H201" s="5" t="s">
         <v>9</v>
@@ -8324,12 +8327,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -8344,7 +8347,7 @@
         <v>9</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H202" s="3" t="s">
         <v>9</v>
@@ -8356,12 +8359,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>9</v>
@@ -8376,7 +8379,7 @@
         <v>9</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H203" s="5" t="s">
         <v>9</v>
@@ -8388,12 +8391,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -8408,7 +8411,7 @@
         <v>9</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>9</v>
@@ -8420,12 +8423,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>9</v>
@@ -8440,7 +8443,7 @@
         <v>9</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H205" s="5" t="s">
         <v>9</v>
@@ -8452,12 +8455,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -8472,7 +8475,7 @@
         <v>9</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H206" s="3" t="s">
         <v>9</v>
@@ -8484,12 +8487,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>9</v>
@@ -8504,7 +8507,7 @@
         <v>9</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H207" s="5" t="s">
         <v>9</v>
@@ -8516,12 +8519,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -8536,7 +8539,7 @@
         <v>9</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H208" s="3" t="s">
         <v>9</v>
@@ -8548,12 +8551,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>9</v>
@@ -8568,7 +8571,7 @@
         <v>9</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H209" s="5" t="s">
         <v>9</v>
@@ -8580,12 +8583,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>11</v>
@@ -8600,7 +8603,7 @@
         <v>9</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H210" s="3" t="s">
         <v>9</v>
@@ -8612,12 +8615,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>9</v>
@@ -8632,7 +8635,7 @@
         <v>9</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H211" s="5" t="s">
         <v>9</v>
@@ -8644,12 +8647,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>10</v>
@@ -8664,7 +8667,7 @@
         <v>9</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H212" s="3" t="s">
         <v>9</v>
@@ -8676,12 +8679,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>9</v>
@@ -8696,7 +8699,7 @@
         <v>9</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H213" s="5" t="s">
         <v>9</v>
@@ -8708,12 +8711,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -8725,10 +8728,10 @@
         <v>9</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H214" s="3" t="s">
         <v>9</v>
@@ -8740,12 +8743,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>9</v>
@@ -8760,7 +8763,7 @@
         <v>9</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H215" s="5" t="s">
         <v>9</v>
@@ -8772,12 +8775,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
@@ -8792,7 +8795,7 @@
         <v>9</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H216" s="3" t="s">
         <v>9</v>
@@ -8804,12 +8807,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>9</v>
@@ -8824,7 +8827,7 @@
         <v>9</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H217" s="5" t="s">
         <v>9</v>
@@ -8836,12 +8839,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -8856,10 +8859,10 @@
         <v>9</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I218" s="3" t="s">
         <v>9</v>
@@ -8868,12 +8871,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>9</v>
@@ -8888,7 +8891,7 @@
         <v>9</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H219" s="5" t="s">
         <v>9</v>
@@ -8900,12 +8903,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -8920,7 +8923,7 @@
         <v>9</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H220" s="3" t="s">
         <v>9</v>
@@ -8932,12 +8935,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>9</v>
@@ -8952,10 +8955,10 @@
         <v>9</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I221" s="5" t="s">
         <v>9</v>
@@ -8964,12 +8967,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -8984,7 +8987,7 @@
         <v>9</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H222" s="3" t="s">
         <v>9</v>
@@ -8996,12 +8999,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>9</v>
@@ -9016,7 +9019,7 @@
         <v>9</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H223" s="5" t="s">
         <v>9</v>
@@ -9028,12 +9031,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -9048,7 +9051,7 @@
         <v>9</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H224" s="3" t="s">
         <v>9</v>
@@ -9060,12 +9063,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>9</v>
@@ -9080,7 +9083,7 @@
         <v>9</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H225" s="5" t="s">
         <v>9</v>
@@ -9092,12 +9095,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -9112,7 +9115,7 @@
         <v>9</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H226" s="3" t="s">
         <v>9</v>
